--- a/reports/information/eda_summary.xlsx
+++ b/reports/information/eda_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,234 +434,194 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>shape</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>shape</t>
+          <t>outliers</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>outliers</t>
+          <t>relationship_with_tp</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>relationship_with_tp</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
           <t>notes</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>msl</t>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Normal</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Non-linear. The scatter plot shows that the highest precipitation occurs within a mid-range of pressure values (approx. 100500-101250), not at the extremes.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>The distribution is approximately normal. Its relationship with precipitation is not a simple line, but confined to a specific pressure band.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bimodal</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>No clear relationship. Precipitation events are scattered within the two main temperature clusters, but there is no obvious trend.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>This feature has a bimodal distribution. It does not appear to be a strong individual predictor for the amount of precipitation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Normal</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Non-linear. The scatter plot shows that the highest precipitation occurs within a mid-range of pressure values (approx. 100500-101250), not at the extremes.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>The distribution is approximately normal. Its relationship with precipitation is not a simple line, but confined to a specific pressure band.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>sst</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Bimodal</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>No clear relationship. Precipitation events are scattered within the two main temperature clusters, but there is no obvious trend.</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>This feature has a bimodal distribution. It does not appear to be a strong individual predictor for the amount of precipitation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>u10</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Weak positive relationship. The plot is very scattered, but higher precipitation is possible as the eastward wind component moves away from zero.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>The eastward wind component follows a normal distribution with many outliers. Its relationship with precipitation is noisy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Normal</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Weak positive relationship. The plot is very scattered, but higher precipitation is possible as the eastward wind component moves away from zero.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>The eastward wind component follows a normal distribution with many outliers. Its relationship with precipitation is noisy.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>v10</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Very weak relationship. The points are widely scattered with no discernible pattern connecting the northward wind component to precipitation amount.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Normally distributed with many outliers. It appears to be a poor predictor of precipitation on its own.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Skewed Right</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Very weak relationship. The points are widely scattered with no discernible pattern connecting the northward wind component to precipitation amount.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Normally distributed with many outliers. It appears to be a poor predictor of precipitation on its own.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>ws</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Weak positive relationship. Higher wind speeds allow for higher precipitation, but the relationship is very scattered (heteroscedastic).</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Wind speed is positively skewed. Higher wind speeds are associated with a greater *possibility* of rain, but not a certainty.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Skewed Left</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Non-linear. The highest precipitation values are concentrated in a specific temperature band (approx. 24-27°C).</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Temperature is slightly skewed left. Its relationship with rain is not linear; instead, there's an optimal temperature range for heavy precipitation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Skewed Left</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Strong, non-linear positive relationship. There is a clear threshold around 75% RH, above which precipitation becomes possible and increases dramatically.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Relative humidity is strongly skewed left. It is the most telling predictor, showing that high humidity is a necessary condition for rain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Skewed Right</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Weak positive relationship. Higher wind speeds allow for higher precipitation, but the relationship is very scattered (heteroscedastic).</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Wind speed is positively skewed. Higher wind speeds are associated with a greater *possibility* of rain, but not a certainty.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>t2m</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Skewed Left</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Non-linear. The highest precipitation values are concentrated in a specific temperature band (approx. 24-27°C).</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Temperature is slightly skewed left. Its relationship with rain is not linear; instead, there's an optimal temperature range for heavy precipitation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>rh</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Skewed Left</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Strong, non-linear positive relationship. There is a clear threshold around 75% RH, above which precipitation becomes possible and increases dramatically.</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Relative humidity is strongly skewed left. It is the most telling predictor, showing that high humidity is a necessary condition for rain.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>tp</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Skewed Right</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>Total precipitation is extremely skewed to the right, which is typical for rainfall data where non-rainy days (value 0) are most common.</t>
         </is>

--- a/reports/information/eda_summary.xlsx
+++ b/reports/information/eda_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,194 +434,234 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>shape</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>outliers</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>relationship_with_tp</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>notes</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>msl</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Normal</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Non-linear. The scatter plot shows that the highest precipitation occurs within a mid-range of pressure values (approx. 100500-101250), not at the extremes.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>The distribution is approximately normal. Its relationship with precipitation is not a simple line, but confined to a specific pressure band.</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>sst</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Bimodal</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>No clear relationship. Precipitation events are scattered within the two main temperature clusters, but there is no obvious trend.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>This feature has a bimodal distribution. It does not appear to be a strong individual predictor for the amount of precipitation.</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>u10</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Normal</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Weak positive relationship. The plot is very scattered, but higher precipitation is possible as the eastward wind component moves away from zero.</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>The eastward wind component follows a normal distribution with many outliers. Its relationship with precipitation is noisy.</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>v10</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Normal</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Very weak relationship. The points are widely scattered with no discernible pattern connecting the northward wind component to precipitation amount.</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Normally distributed with many outliers. It appears to be a poor predictor of precipitation on its own.</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>ws</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Skewed Right</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Weak positive relationship. Higher wind speeds allow for higher precipitation, but the relationship is very scattered (heteroscedastic).</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Wind speed is positively skewed. Higher wind speeds are associated with a greater *possibility* of rain, but not a certainty.</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>t2m</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Skewed Left</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Non-linear. The highest precipitation values are concentrated in a specific temperature band (approx. 24-27°C).</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Temperature is slightly skewed left. Its relationship with rain is not linear; instead, there's an optimal temperature range for heavy precipitation.</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>rh</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Skewed Left</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Strong, non-linear positive relationship. There is a clear threshold around 75% RH, above which precipitation becomes possible and increases dramatically.</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Relative humidity is strongly skewed left. It is the most telling predictor, showing that high humidity is a necessary condition for rain.</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>tp</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Skewed Right</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Total precipitation is extremely skewed to the right, which is typical for rainfall data where non-rainy days (value 0) are most common.</t>
         </is>
